--- a/Report_Latex/images/Workbook1.xlsx
+++ b/Report_Latex/images/Workbook1.xlsx
@@ -30,19 +30,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>MV_without spike</t>
+    <t>confident level (%)</t>
   </si>
   <si>
-    <t>QR_without spike</t>
+    <t>Deep ResNet-MV</t>
   </si>
   <si>
-    <t>MV_with spuke</t>
+    <t>Deep ResNet-QR</t>
   </si>
   <si>
-    <t>QR_with spike</t>
+    <t>MLP-QR</t>
   </si>
   <si>
-    <t>confident level (%)</t>
+    <t>MLP-MV</t>
   </si>
 </sst>
 </file>
@@ -115,189 +115,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MV_without spike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.327163</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.277737</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.256017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.191351</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>QR_without spike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.281287</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.188968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.159561</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.118768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.088127</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MV_with spuke</c:v>
+                  <c:v>Deep ResNet-MV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -358,19 +184,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.254186</c:v>
+                  <c:v>17.858091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210318</c:v>
+                  <c:v>14.776097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.186335</c:v>
+                  <c:v>13.091143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.178894</c:v>
+                  <c:v>12.568387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.143343</c:v>
+                  <c:v>10.070707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,14 +205,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QR_with spike</c:v>
+                  <c:v>Deep ResNet-QR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -445,19 +271,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.243926</c:v>
+                  <c:v>17.13724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.192007</c:v>
+                  <c:v>13.489668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.152519</c:v>
+                  <c:v>10.715397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12223</c:v>
+                  <c:v>8.587403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.092036</c:v>
+                  <c:v>6.466049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,11 +300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-851187424"/>
-        <c:axId val="-849081552"/>
+        <c:axId val="-842645856"/>
+        <c:axId val="-830408048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-851187424"/>
+        <c:axId val="-842645856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849081552"/>
+        <c:crossAx val="-830408048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-849081552"/>
+        <c:axId val="-830408048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,6 +472,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -673,7 +500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-851187424"/>
+        <c:crossAx val="-842645856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1324,7 +1151,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676718" cy="6291832"/>
+    <xdr:ext cx="8673411" cy="6290930"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1613,7 +1440,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,19 +1454,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,16 +1474,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.32716299999999998</v>
+        <v>22.985161000000002</v>
       </c>
       <c r="C2">
-        <v>0.28128700000000001</v>
+        <v>19.762073999999998</v>
       </c>
       <c r="D2">
-        <v>0.25418600000000002</v>
+        <v>17.858091000000002</v>
       </c>
       <c r="E2">
-        <v>0.243926</v>
+        <v>17.137239999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1664,16 +1491,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.25628099999999998</v>
+        <v>18.005293000000002</v>
       </c>
       <c r="C3">
-        <v>0.188968</v>
+        <v>13.276104</v>
       </c>
       <c r="D3">
-        <v>0.210318</v>
+        <v>14.776097</v>
       </c>
       <c r="E3">
-        <v>0.19200700000000001</v>
+        <v>13.489668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1681,16 +1508,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.27773700000000001</v>
+        <v>19.512671000000001</v>
       </c>
       <c r="C4">
-        <v>0.15956100000000001</v>
+        <v>11.210101</v>
       </c>
       <c r="D4">
-        <v>0.186335</v>
+        <v>13.091143000000001</v>
       </c>
       <c r="E4">
-        <v>0.15251899999999999</v>
+        <v>10.715396999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,16 +1525,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.25601699999999999</v>
+        <v>17.986756</v>
       </c>
       <c r="C5">
-        <v>0.118768</v>
+        <v>8.3441430000000008</v>
       </c>
       <c r="D5">
-        <v>0.178894</v>
+        <v>12.568387</v>
       </c>
       <c r="E5">
-        <v>0.12223000000000001</v>
+        <v>8.5874030000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,16 +1542,16 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.19135099999999999</v>
+        <v>13.443533</v>
       </c>
       <c r="C6">
-        <v>8.8126999999999997E-2</v>
+        <v>6.191459</v>
       </c>
       <c r="D6">
-        <v>0.143343</v>
+        <v>10.070707000000001</v>
       </c>
       <c r="E6">
-        <v>9.2036000000000007E-2</v>
+        <v>6.4660489999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Report_Latex/images/Workbook1.xlsx
+++ b/Report_Latex/images/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CWC" sheetId="2" r:id="rId1"/>
@@ -300,11 +300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-842645856"/>
-        <c:axId val="-830408048"/>
+        <c:axId val="-530947776"/>
+        <c:axId val="-574528496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-842645856"/>
+        <c:axId val="-530947776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-830408048"/>
+        <c:crossAx val="-574528496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -402,7 +402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-830408048"/>
+        <c:axId val="-574528496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-842645856"/>
+        <c:crossAx val="-530947776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1140,7 +1140,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
